--- a/src/main/java/com/ey/test3po/testdata/TestData.xlsx
+++ b/src/main/java/com/ey/test3po/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="431">
   <si>
     <t>Age</t>
   </si>
@@ -998,6 +998,336 @@
   </si>
   <si>
     <t>64669</t>
+  </si>
+  <si>
+    <t>3064131</t>
+  </si>
+  <si>
+    <t>3064130</t>
+  </si>
+  <si>
+    <t>306413</t>
+  </si>
+  <si>
+    <t>9680</t>
+  </si>
+  <si>
+    <t>2234658</t>
+  </si>
+  <si>
+    <t>2234657</t>
+  </si>
+  <si>
+    <t>223465</t>
+  </si>
+  <si>
+    <t>16792</t>
+  </si>
+  <si>
+    <t>1844921</t>
+  </si>
+  <si>
+    <t>1844920</t>
+  </si>
+  <si>
+    <t>184492</t>
+  </si>
+  <si>
+    <t>TC_31_1</t>
+  </si>
+  <si>
+    <t>TC_31_2</t>
+  </si>
+  <si>
+    <t>TC_31_3</t>
+  </si>
+  <si>
+    <t>TC_31_4</t>
+  </si>
+  <si>
+    <t>TC_31_5</t>
+  </si>
+  <si>
+    <t>TC_31_6</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>hjh</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>729258</t>
+  </si>
+  <si>
+    <t>729257</t>
+  </si>
+  <si>
+    <t>72925</t>
+  </si>
+  <si>
+    <t>80798</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>551566</t>
+  </si>
+  <si>
+    <t>551565</t>
+  </si>
+  <si>
+    <t>55156</t>
+  </si>
+  <si>
+    <t>TC_31_a</t>
+  </si>
+  <si>
+    <t>TC_31_b</t>
+  </si>
+  <si>
+    <t>TC_31_c</t>
+  </si>
+  <si>
+    <t>TC_31_d</t>
+  </si>
+  <si>
+    <t>LP23-0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11564</t>
+  </si>
+  <si>
+    <t>288815</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>19699</t>
+  </si>
+  <si>
+    <t>163932</t>
+  </si>
+  <si>
+    <t>TC_25_1</t>
+  </si>
+  <si>
+    <t>TC_25_2</t>
+  </si>
+  <si>
+    <t>TC_25_3</t>
+  </si>
+  <si>
+    <t>TC_23_2</t>
+  </si>
+  <si>
+    <t>329199</t>
+  </si>
+  <si>
+    <t>26547</t>
+  </si>
+  <si>
+    <t>301554</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>271487</t>
+  </si>
+  <si>
+    <t>23647</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>47971</t>
+  </si>
+  <si>
+    <t>TC_25_01</t>
+  </si>
+  <si>
+    <t>TC_25_02</t>
+  </si>
+  <si>
+    <t>TC_25_03</t>
+  </si>
+  <si>
+    <t>Net Income After Ret</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>dasad</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1059.5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>TC_28_1</t>
+  </si>
+  <si>
+    <t>TC_28_2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>5041</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>TC_28_3</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>dsas</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>17819</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1059.3</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>TC_19_1</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>LP22</t>
+  </si>
+  <si>
+    <t>LP24</t>
+  </si>
+  <si>
+    <t>LP25</t>
+  </si>
+  <si>
+    <t>LP26</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>27822</t>
+  </si>
+  <si>
+    <t>18672</t>
+  </si>
+  <si>
+    <t>42070</t>
+  </si>
+  <si>
+    <t>62126</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1073,12 +1403,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1097,6 +1457,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1427,7 +1798,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1451,11 +1822,11 @@
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="23.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -1525,566 +1896,1238 @@
       <c r="W1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="24">
+        <v>123</v>
+      </c>
+      <c r="P2" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="K3" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="24">
+        <v>123</v>
+      </c>
+      <c r="P3" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="V3" s="26"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="24">
+        <v>123</v>
+      </c>
+      <c r="P4" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="V4" s="26"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="24">
+        <v>123</v>
+      </c>
+      <c r="P5" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="24">
+        <v>123</v>
+      </c>
+      <c r="P6" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="19">
+        <v>123</v>
+      </c>
+      <c r="P7" s="19">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="19">
+        <v>123</v>
+      </c>
+      <c r="P8" s="19">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="19">
+        <v>123</v>
+      </c>
+      <c r="P9" s="19">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="19">
+        <v>123</v>
+      </c>
+      <c r="P10" s="19">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="9">
+        <v>123</v>
+      </c>
+      <c r="P11" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="9">
+        <v>123</v>
+      </c>
+      <c r="P12" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="9">
+        <v>123</v>
+      </c>
+      <c r="P13" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="9">
+        <v>123</v>
+      </c>
+      <c r="P14" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="9">
+        <v>123</v>
+      </c>
+      <c r="P15" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="9">
+        <v>123</v>
+      </c>
+      <c r="P16" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9">
+        <v>123</v>
+      </c>
+      <c r="P17" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="9">
+        <v>123</v>
+      </c>
+      <c r="P18" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E19" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F19" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G19" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K19" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L19" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="9">
-        <v>123</v>
-      </c>
-      <c r="P2" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="M19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="24">
+        <v>123</v>
+      </c>
+      <c r="P19" s="24">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R19" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S19" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T19" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U19" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V19" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="9" t="s">
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="9">
-        <v>123</v>
-      </c>
-      <c r="P3" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9">
-        <v>123</v>
-      </c>
-      <c r="P4" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="9">
-        <v>123</v>
-      </c>
-      <c r="P5" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="9">
-        <v>123</v>
-      </c>
-      <c r="P6" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="9">
-        <v>123</v>
-      </c>
-      <c r="P7" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="9">
-        <v>123</v>
-      </c>
-      <c r="P8" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="9">
-        <v>123</v>
-      </c>
-      <c r="P9" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:Y19">
+    <sortCondition ref="Y1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
-    <hyperlink ref="N8" r:id="rId2"/>
-    <hyperlink ref="N9" r:id="rId3"/>
-    <hyperlink ref="N3" r:id="rId4"/>
-    <hyperlink ref="N4" r:id="rId5"/>
-    <hyperlink ref="N5" r:id="rId6"/>
-    <hyperlink ref="N6" r:id="rId7"/>
-    <hyperlink ref="N2" r:id="rId8"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N6" r:id="rId5"/>
+    <hyperlink ref="N7" r:id="rId6"/>
+    <hyperlink ref="N11" r:id="rId7"/>
+    <hyperlink ref="N19" r:id="rId8"/>
+    <hyperlink ref="N15" r:id="rId9"/>
+    <hyperlink ref="N16" r:id="rId10"/>
+    <hyperlink ref="N17" r:id="rId11"/>
+    <hyperlink ref="N18" r:id="rId12"/>
+    <hyperlink ref="N8" r:id="rId13"/>
+    <hyperlink ref="N12" r:id="rId14"/>
+    <hyperlink ref="N13" r:id="rId15"/>
+    <hyperlink ref="N14" r:id="rId16"/>
+    <hyperlink ref="N9" r:id="rId17"/>
+    <hyperlink ref="N10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2092,9 +3135,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2116,11 +3159,11 @@
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="23.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -2190,489 +3233,1224 @@
       <c r="W1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="9">
+        <v>123</v>
+      </c>
+      <c r="P2" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="9">
+        <v>123</v>
+      </c>
+      <c r="P3" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="24"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="9">
-        <v>123</v>
-      </c>
-      <c r="P2" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="J4" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9">
+        <v>123</v>
+      </c>
+      <c r="P4" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="R4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V4" s="24"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="C5" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="9">
-        <v>123</v>
-      </c>
-      <c r="P3" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9">
-        <v>123</v>
-      </c>
-      <c r="P4" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="26" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="9">
+        <v>123</v>
+      </c>
+      <c r="P5" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="9">
+        <v>123</v>
+      </c>
+      <c r="P6" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="9">
+        <v>123</v>
+      </c>
+      <c r="P7" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="9">
-        <v>123</v>
-      </c>
-      <c r="P5" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+      <c r="D8" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="11">
+        <v>123</v>
+      </c>
+      <c r="P8" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="11">
+        <v>123</v>
+      </c>
+      <c r="P9" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="11">
+        <v>123</v>
+      </c>
+      <c r="P10" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R10" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="V5" s="8" t="s">
+      <c r="U10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="V10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="W10" s="9"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="11">
+        <v>123</v>
+      </c>
+      <c r="P11" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="11">
+        <v>123</v>
+      </c>
+      <c r="P12" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="11">
+        <v>123</v>
+      </c>
+      <c r="P13" s="11">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="9">
+        <v>123</v>
+      </c>
+      <c r="P14" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="9">
+        <v>123</v>
+      </c>
+      <c r="P15" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="9">
+        <v>123</v>
+      </c>
+      <c r="P16" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9">
+        <v>123</v>
+      </c>
+      <c r="P17" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="9">
+        <v>123</v>
+      </c>
+      <c r="P18" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="9">
-        <v>123</v>
-      </c>
-      <c r="P6" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="9">
-        <v>123</v>
-      </c>
-      <c r="P7" s="9">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="11">
-        <v>123</v>
-      </c>
-      <c r="P8" s="11">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="11" t="s">
-        <v>225</v>
+      <c r="H19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="9">
+        <v>123</v>
+      </c>
+      <c r="P19" s="9">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Y19">
+    <sortCondition ref="Y1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1"/>
-    <hyperlink ref="N7" r:id="rId2"/>
-    <hyperlink ref="N8" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N3" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="N2" r:id="rId7"/>
+    <hyperlink ref="N3" r:id="rId1"/>
+    <hyperlink ref="N5" r:id="rId2"/>
+    <hyperlink ref="N10" r:id="rId3"/>
+    <hyperlink ref="N2" r:id="rId4"/>
+    <hyperlink ref="N4" r:id="rId5"/>
+    <hyperlink ref="N6" r:id="rId6"/>
+    <hyperlink ref="N7" r:id="rId7"/>
+    <hyperlink ref="N14" r:id="rId8"/>
+    <hyperlink ref="N15" r:id="rId9"/>
+    <hyperlink ref="N16" r:id="rId10"/>
+    <hyperlink ref="N17" r:id="rId11"/>
+    <hyperlink ref="N18" r:id="rId12"/>
+    <hyperlink ref="N19" r:id="rId13"/>
+    <hyperlink ref="N8" r:id="rId14"/>
+    <hyperlink ref="N9" r:id="rId15"/>
+    <hyperlink ref="N11" r:id="rId16"/>
+    <hyperlink ref="N12" r:id="rId17"/>
+    <hyperlink ref="N13" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2879,11 +4657,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2990,7 +4766,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>46</v>
@@ -3002,13 +4778,17 @@
         <v>50</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
@@ -3022,22 +4802,26 @@
         <v>123</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="T2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
-        <v>307</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="13"/>
       <c r="W2" s="9" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -3051,7 +4835,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>46</v>
@@ -3069,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>50</v>
@@ -3090,25 +4874,23 @@
         <v>56</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>314</v>
+        <v>173</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>307</v>
-      </c>
+      <c r="V3" s="13"/>
       <c r="W3" s="9" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3122,7 +4904,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>46</v>
@@ -3134,16 +4916,16 @@
         <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>19</v>
@@ -3158,26 +4940,26 @@
         <v>123</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="9" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3191,7 +4973,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>46</v>
@@ -3206,14 +4988,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="9" t="s">
         <v>19</v>
       </c>
@@ -3230,23 +5008,17 @@
         <v>38</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3260,7 +5032,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>46</v>
@@ -3274,15 +5046,11 @@
       <c r="H6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="I6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
@@ -3299,23 +5067,17 @@
         <v>56</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="9" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -3329,7 +5091,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>46</v>
@@ -3343,15 +5105,11 @@
       <c r="H7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="I7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
@@ -3368,23 +5126,17 @@
         <v>57</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>178</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3398,7 +5150,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -3413,7 +5165,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -3433,17 +5185,17 @@
         <v>38</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="9" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3457,7 +5209,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>46</v>
@@ -3472,7 +5224,7 @@
         <v>54</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -3492,17 +5244,17 @@
         <v>56</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="9" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3516,7 +5268,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>46</v>
@@ -3531,7 +5283,7 @@
         <v>55</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -3551,17 +5303,17 @@
         <v>57</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="9" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3575,7 +5327,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>46</v>
@@ -3590,9 +5342,11 @@
         <v>3</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="9" t="s">
         <v>19</v>
@@ -3610,17 +5364,21 @@
         <v>38</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="T11" s="13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="9" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3634,7 +5392,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>46</v>
@@ -3648,10 +5406,12 @@
       <c r="H12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="I12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="9" t="s">
         <v>19</v>
@@ -3669,17 +5429,21 @@
         <v>56</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="T12" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3693,7 +5457,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>46</v>
@@ -3707,10 +5471,12 @@
       <c r="H13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="I13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="9" t="s">
         <v>19</v>
@@ -3728,17 +5494,21 @@
         <v>57</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="T13" s="13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="9" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -3752,7 +5522,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>46</v>
@@ -3770,9 +5540,11 @@
         <v>21</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
@@ -3795,15 +5567,17 @@
         <v>43</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="U14" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V14" s="13"/>
       <c r="W14" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3817,7 +5591,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>46</v>
@@ -3835,9 +5609,11 @@
         <v>21</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>19</v>
       </c>
@@ -3860,15 +5636,17 @@
         <v>172</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="U15" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V15" s="13"/>
       <c r="W15" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3882,7 +5660,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>46</v>
@@ -3900,9 +5678,11 @@
         <v>21</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>19</v>
       </c>
@@ -3925,15 +5705,17 @@
         <v>176</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V16" s="13"/>
       <c r="W16" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3947,7 +5729,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>46</v>
@@ -3965,11 +5747,9 @@
         <v>21</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K17" s="13"/>
       <c r="L17" s="9" t="s">
         <v>19</v>
       </c>
@@ -3992,17 +5772,15 @@
         <v>43</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -4016,7 +5794,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>46</v>
@@ -4034,11 +5812,9 @@
         <v>21</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="9" t="s">
         <v>19</v>
       </c>
@@ -4061,17 +5837,15 @@
         <v>172</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -4085,7 +5859,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>46</v>
@@ -4103,11 +5877,9 @@
         <v>21</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K19" s="13"/>
       <c r="L19" s="9" t="s">
         <v>19</v>
       </c>
@@ -4130,17 +5902,15 @@
         <v>176</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -4154,7 +5924,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>46</v>
@@ -4172,9 +5942,11 @@
         <v>21</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="L20" s="9" t="s">
         <v>19</v>
       </c>
@@ -4197,15 +5969,17 @@
         <v>43</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V20" s="13"/>
       <c r="W20" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -4219,7 +5993,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>46</v>
@@ -4237,9 +6011,11 @@
         <v>21</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>19</v>
       </c>
@@ -4262,18 +6038,20 @@
         <v>172</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" s="13"/>
+        <v>210</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V21" s="13"/>
       <c r="W21" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +6062,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>46</v>
@@ -4302,9 +6080,11 @@
         <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="L22" s="9" t="s">
         <v>19</v>
       </c>
@@ -4327,18 +6107,20 @@
         <v>176</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="U22" s="13"/>
+        <v>211</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V22" s="13"/>
       <c r="W22" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +6131,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>46</v>
@@ -4361,16 +6143,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>19</v>
@@ -4385,26 +6167,28 @@
         <v>123</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>171</v>
+        <v>427</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="U23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V23" s="13"/>
+      <c r="V23" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="W23" s="9" t="s">
-        <v>207</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4418,7 +6202,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>46</v>
@@ -4430,77 +6214,342 @@
         <v>50</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="9">
+        <v>123</v>
+      </c>
+      <c r="O24" s="9">
+        <v>123</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="9">
+        <v>123</v>
+      </c>
+      <c r="O25" s="9">
+        <v>123</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="9">
+        <v>123</v>
+      </c>
+      <c r="O26" s="9">
+        <v>123</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="11">
+        <v>123</v>
+      </c>
+      <c r="O27" s="11">
+        <v>123</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="U27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="9">
-        <v>123</v>
-      </c>
-      <c r="O24" s="9">
-        <v>123</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="9" t="s">
-        <v>208</v>
+      <c r="V27" s="8"/>
+      <c r="W27" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="9">
+        <v>123</v>
+      </c>
+      <c r="O28" s="9">
+        <v>123</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:W27">
+    <sortCondition ref="W1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1"/>
-    <hyperlink ref="M6" r:id="rId2"/>
-    <hyperlink ref="M7" r:id="rId3"/>
-    <hyperlink ref="M8" r:id="rId4"/>
-    <hyperlink ref="M9" r:id="rId5"/>
-    <hyperlink ref="M10" r:id="rId6"/>
-    <hyperlink ref="M11" r:id="rId7"/>
-    <hyperlink ref="M12" r:id="rId8"/>
-    <hyperlink ref="M13" r:id="rId9"/>
-    <hyperlink ref="M14" r:id="rId10"/>
-    <hyperlink ref="M15" r:id="rId11"/>
-    <hyperlink ref="M16" r:id="rId12"/>
-    <hyperlink ref="M17" r:id="rId13"/>
-    <hyperlink ref="M18" r:id="rId14"/>
-    <hyperlink ref="M19" r:id="rId15"/>
-    <hyperlink ref="M20" r:id="rId16"/>
-    <hyperlink ref="M21" r:id="rId17"/>
-    <hyperlink ref="M22" r:id="rId18"/>
-    <hyperlink ref="M4" r:id="rId19"/>
-    <hyperlink ref="M23" r:id="rId20"/>
-    <hyperlink ref="M24" r:id="rId21"/>
-    <hyperlink ref="M2" r:id="rId22"/>
-    <hyperlink ref="M3" r:id="rId23"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M20" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M24" r:id="rId22"/>
+    <hyperlink ref="M25" r:id="rId23"/>
+    <hyperlink ref="M28" r:id="rId24"/>
+    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="M23" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4509,11 +6558,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4637,9 +6684,11 @@
         <v>258</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
@@ -4662,53 +6711,49 @@
         <v>260</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="13" t="s">
-        <v>307</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="13"/>
       <c r="W2" s="9" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>319</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4722,28 +6767,20 @@
         <v>116</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>261</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>307</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="13"/>
       <c r="W3" s="9" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4757,7 +6794,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>110</v>
@@ -4769,17 +6806,13 @@
         <v>103</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
         <v>19</v>
       </c>
@@ -4793,57 +6826,53 @@
         <v>116</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>261</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
       <c r="T4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="U4" s="9"/>
       <c r="V4" s="13"/>
       <c r="W4" s="9" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="9" t="s">
         <v>19</v>
@@ -4858,20 +6887,24 @@
         <v>116</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="13"/>
+        <v>265</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="T5" s="8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="13"/>
       <c r="W5" s="9" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -4885,7 +6918,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>110</v>
@@ -4897,13 +6930,17 @@
         <v>103</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
@@ -4917,20 +6954,26 @@
         <v>116</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="T6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U6" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="V6" s="13"/>
       <c r="W6" s="9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -4962,7 +7005,7 @@
         <v>264</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="9" t="s">
@@ -4987,15 +7030,15 @@
         <v>266</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="13"/>
       <c r="W7" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -5030,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>19</v>
@@ -5057,14 +7100,14 @@
         <v>261</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -5090,13 +7133,13 @@
         <v>103</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9" t="s">
@@ -5112,24 +7155,26 @@
         <v>116</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="U9" s="8"/>
-      <c r="V9" s="13"/>
+      <c r="V9" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="W9" s="9" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -5164,7 +7209,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>19</v>
@@ -5191,27 +7236,230 @@
         <v>261</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="13"/>
+        <v>319</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="W10" s="9" t="s">
-        <v>206</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:W13">
+    <sortCondition ref="W1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1"/>
-    <hyperlink ref="M7" r:id="rId2"/>
-    <hyperlink ref="M6" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M10" r:id="rId5"/>
-    <hyperlink ref="M8" r:id="rId6"/>
-    <hyperlink ref="M4" r:id="rId7"/>
-    <hyperlink ref="M2" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9"/>
+    <hyperlink ref="M7" r:id="rId1"/>
+    <hyperlink ref="M5" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="M8" r:id="rId5"/>
+    <hyperlink ref="M6" r:id="rId6"/>
+    <hyperlink ref="M2" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5220,7 +7468,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5329,7 +7577,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>46</v>
@@ -5341,13 +7589,17 @@
         <v>50</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
@@ -5361,22 +7613,26 @@
         <v>123</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="T2" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13" t="s">
-        <v>307</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="13"/>
       <c r="W2" s="9" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -5390,7 +7646,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>46</v>
@@ -5408,7 +7664,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>50</v>
@@ -5429,25 +7685,23 @@
         <v>56</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>314</v>
+        <v>173</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>307</v>
-      </c>
+      <c r="V3" s="13"/>
       <c r="W3" s="9" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -5461,7 +7715,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>46</v>
@@ -5473,13 +7727,13 @@
         <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>50</v>
@@ -5497,26 +7751,26 @@
         <v>123</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5530,7 +7784,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>46</v>
@@ -5542,17 +7796,13 @@
         <v>50</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="9" t="s">
         <v>19</v>
       </c>
@@ -5566,26 +7816,20 @@
         <v>123</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -5599,7 +7843,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>46</v>
@@ -5611,17 +7855,13 @@
         <v>50</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
@@ -5635,26 +7875,20 @@
         <v>123</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>178</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -5668,7 +7902,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>46</v>
@@ -5680,10 +7914,10 @@
         <v>50</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -5700,20 +7934,20 @@
         <v>123</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="9" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -5727,7 +7961,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -5739,10 +7973,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -5759,23 +7993,23 @@
         <v>123</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
@@ -5786,7 +8020,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>46</v>
@@ -5798,10 +8032,10 @@
         <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -5818,20 +8052,20 @@
         <v>123</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="9" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -5845,7 +8079,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>46</v>
@@ -5857,10 +8091,10 @@
         <v>50</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>185</v>
+        <v>55</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -5877,20 +8111,20 @@
         <v>123</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="9" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -5904,7 +8138,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>46</v>
@@ -5916,12 +8150,14 @@
         <v>50</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="9" t="s">
         <v>19</v>
@@ -5936,20 +8172,24 @@
         <v>123</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="T11" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5963,7 +8203,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>46</v>
@@ -5975,12 +8215,14 @@
         <v>50</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="9" t="s">
         <v>19</v>
@@ -5995,20 +8237,24 @@
         <v>123</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="T12" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -6022,7 +8268,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>46</v>
@@ -6034,13 +8280,13 @@
         <v>50</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="9" t="s">
@@ -6056,24 +8302,24 @@
         <v>123</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -6087,7 +8333,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>46</v>
@@ -6099,15 +8345,17 @@
         <v>50</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
@@ -6121,24 +8369,26 @@
         <v>123</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="U14" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V14" s="13"/>
       <c r="W14" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -6152,7 +8402,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>46</v>
@@ -6164,15 +8414,17 @@
         <v>50</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>19</v>
       </c>
@@ -6186,24 +8438,26 @@
         <v>123</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U15" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V15" s="13"/>
       <c r="W15" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -6217,7 +8471,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>46</v>
@@ -6229,13 +8483,13 @@
         <v>50</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>196</v>
@@ -6253,26 +8507,26 @@
         <v>123</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V16" s="13"/>
       <c r="W16" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -6286,7 +8540,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>46</v>
@@ -6298,17 +8552,15 @@
         <v>50</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K17" s="13"/>
       <c r="L17" s="9" t="s">
         <v>19</v>
       </c>
@@ -6322,26 +8574,24 @@
         <v>123</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -6355,7 +8605,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>46</v>
@@ -6367,17 +8617,15 @@
         <v>50</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>196</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="9" t="s">
         <v>19</v>
       </c>
@@ -6391,26 +8639,24 @@
         <v>123</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -6424,7 +8670,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>46</v>
@@ -6436,13 +8682,13 @@
         <v>50</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="9" t="s">
@@ -6458,24 +8704,24 @@
         <v>123</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -6489,7 +8735,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>46</v>
@@ -6501,15 +8747,17 @@
         <v>50</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="L20" s="9" t="s">
         <v>19</v>
       </c>
@@ -6523,24 +8771,26 @@
         <v>123</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V20" s="13"/>
       <c r="W20" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -6554,7 +8804,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>46</v>
@@ -6566,15 +8816,17 @@
         <v>50</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>19</v>
       </c>
@@ -6588,24 +8840,26 @@
         <v>123</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="U21" s="13"/>
+        <v>210</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="V21" s="13"/>
       <c r="W21" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -6619,7 +8873,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>46</v>
@@ -6631,13 +8885,13 @@
         <v>50</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>81</v>
@@ -6655,29 +8909,29 @@
         <v>123</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="U22" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
@@ -6688,7 +8942,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>46</v>
@@ -6700,16 +8954,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>19</v>
@@ -6724,26 +8978,28 @@
         <v>123</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>171</v>
+        <v>427</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="U23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V23" s="13"/>
+      <c r="V23" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="W23" s="9" t="s">
-        <v>207</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -6757,7 +9013,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>46</v>
@@ -6769,77 +9025,342 @@
         <v>50</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="9">
+        <v>123</v>
+      </c>
+      <c r="O24" s="9">
+        <v>123</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="9">
+        <v>123</v>
+      </c>
+      <c r="O25" s="9">
+        <v>123</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="9">
+        <v>123</v>
+      </c>
+      <c r="O26" s="9">
+        <v>123</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="11">
+        <v>123</v>
+      </c>
+      <c r="O27" s="11">
+        <v>123</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="U27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="9">
-        <v>123</v>
-      </c>
-      <c r="O24" s="9">
-        <v>123</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="9" t="s">
-        <v>208</v>
+      <c r="V27" s="8"/>
+      <c r="W27" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="9">
+        <v>123</v>
+      </c>
+      <c r="O28" s="9">
+        <v>123</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:W27">
+    <sortCondition ref="W1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1"/>
-    <hyperlink ref="M5" r:id="rId2"/>
-    <hyperlink ref="M6" r:id="rId3"/>
-    <hyperlink ref="M7" r:id="rId4"/>
-    <hyperlink ref="M8" r:id="rId5"/>
-    <hyperlink ref="M9" r:id="rId6"/>
-    <hyperlink ref="M10" r:id="rId7"/>
-    <hyperlink ref="M11" r:id="rId8"/>
-    <hyperlink ref="M12" r:id="rId9"/>
-    <hyperlink ref="M13" r:id="rId10"/>
-    <hyperlink ref="M14" r:id="rId11"/>
-    <hyperlink ref="M15" r:id="rId12"/>
-    <hyperlink ref="M16" r:id="rId13"/>
-    <hyperlink ref="M17" r:id="rId14"/>
-    <hyperlink ref="M18" r:id="rId15"/>
-    <hyperlink ref="M19" r:id="rId16"/>
-    <hyperlink ref="M20" r:id="rId17"/>
-    <hyperlink ref="M21" r:id="rId18"/>
-    <hyperlink ref="M22" r:id="rId19"/>
-    <hyperlink ref="M23" r:id="rId20"/>
-    <hyperlink ref="M24" r:id="rId21"/>
-    <hyperlink ref="M2" r:id="rId22"/>
-    <hyperlink ref="M3" r:id="rId23"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M20" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M24" r:id="rId22"/>
+    <hyperlink ref="M25" r:id="rId23"/>
+    <hyperlink ref="M28" r:id="rId24"/>
+    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="M23" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6848,7 +9369,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6978,9 +9499,11 @@
         <v>258</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
@@ -7003,53 +9526,49 @@
         <v>260</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>317</v>
+        <v>262</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>319</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="9" t="s">
         <v>19</v>
       </c>
@@ -7063,28 +9582,20 @@
         <v>116</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>261</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>318</v>
+        <v>105</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7098,7 +9609,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>110</v>
@@ -7110,17 +9621,13 @@
         <v>103</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
         <v>19</v>
       </c>
@@ -7134,57 +9641,53 @@
         <v>116</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>261</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
       <c r="T4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="U4" s="9"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="9" t="s">
-        <v>51</v>
+      <c r="W4" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="9" t="s">
         <v>19</v>
@@ -7199,20 +9702,24 @@
         <v>116</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="13"/>
+        <v>265</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="T5" s="8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="9" t="s">
-        <v>95</v>
+      <c r="W5" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -7226,7 +9733,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>110</v>
@@ -7238,13 +9745,17 @@
         <v>103</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
@@ -7258,20 +9769,26 @@
         <v>116</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="T6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U6" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="V6" s="13"/>
-      <c r="W6" s="9" t="s">
-        <v>183</v>
+      <c r="W6" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -7303,7 +9820,7 @@
         <v>264</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="9" t="s">
@@ -7328,15 +9845,15 @@
         <v>266</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="9" t="s">
-        <v>193</v>
+      <c r="W7" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -7371,7 +9888,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>19</v>
@@ -7398,14 +9915,14 @@
         <v>261</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="V8" s="13"/>
-      <c r="W8" s="9" t="s">
-        <v>197</v>
+      <c r="W8" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -7431,13 +9948,13 @@
         <v>103</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9" t="s">
@@ -7453,24 +9970,26 @@
         <v>116</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="U9" s="8"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="9" t="s">
-        <v>202</v>
+      <c r="V9" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -7505,7 +10024,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>19</v>
@@ -7532,27 +10051,230 @@
         <v>261</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="9" t="s">
-        <v>206</v>
+        <v>319</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="11" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:W13">
+    <sortCondition ref="W1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1"/>
-    <hyperlink ref="M7" r:id="rId2"/>
-    <hyperlink ref="M6" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M10" r:id="rId5"/>
-    <hyperlink ref="M8" r:id="rId6"/>
-    <hyperlink ref="M4" r:id="rId7"/>
-    <hyperlink ref="M2" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9"/>
+    <hyperlink ref="M7" r:id="rId1"/>
+    <hyperlink ref="M5" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="M8" r:id="rId5"/>
+    <hyperlink ref="M6" r:id="rId6"/>
+    <hyperlink ref="M2" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/ey/test3po/testdata/TestData.xlsx
+++ b/src/main/java/com/ey/test3po/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Back Up\Project Work\Learning Stuffs\Eclipse Oxygen\3PO\src\main\java\com\ey\test3po\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satyaranjan.muduli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="445">
   <si>
     <t>Age</t>
   </si>
@@ -1328,6 +1328,48 @@
   </si>
   <si>
     <t>62126</t>
+  </si>
+  <si>
+    <t>41083</t>
+  </si>
+  <si>
+    <t>Zero_1</t>
+  </si>
+  <si>
+    <t>44660</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>Zero_2</t>
+  </si>
+  <si>
+    <t>4676</t>
+  </si>
+  <si>
+    <t>43041</t>
+  </si>
+  <si>
+    <t>Zero_3</t>
+  </si>
+  <si>
+    <t>47963</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>3763549</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1468,6 +1510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1972,7 +2016,7 @@
       </c>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2041,7 +2085,7 @@
       <c r="V3" s="26"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2110,7 +2154,7 @@
       <c r="V4" s="26"/>
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="29" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2183,7 +2227,7 @@
       </c>
       <c r="W5" s="26"/>
       <c r="X5" s="26"/>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2246,7 +2290,7 @@
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="29" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2309,7 +2353,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="30" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2368,7 +2412,7 @@
       <c r="X8" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="Y8" s="30" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2431,7 +2475,7 @@
         <v>307</v>
       </c>
       <c r="X9" s="18"/>
-      <c r="Y9" s="19" t="s">
+      <c r="Y9" s="30" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2504,7 +2548,7 @@
         <v>307</v>
       </c>
       <c r="X10" s="18"/>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="30" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2577,7 +2621,7 @@
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2638,7 +2682,7 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="11" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2709,7 +2753,7 @@
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" s="11" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2778,7 +2822,7 @@
       </c>
       <c r="W14" s="9"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -2841,7 +2885,7 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="19"/>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="11" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2904,7 +2948,7 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="19"/>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2967,7 +3011,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="19"/>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="11" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3030,7 +3074,7 @@
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="19"/>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="11" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3101,7 +3145,7 @@
       </c>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="24" t="s">
+      <c r="Y19" s="29" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3137,7 +3181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4659,7 +4703,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4820,7 +4864,7 @@
         <v>50</v>
       </c>
       <c r="V2" s="13"/>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4889,7 +4933,7 @@
         <v>50</v>
       </c>
       <c r="V3" s="13"/>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4958,7 +5002,7 @@
         <v>50</v>
       </c>
       <c r="V4" s="13"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5017,7 +5061,7 @@
       </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5076,7 +5120,7 @@
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5135,7 +5179,7 @@
       </c>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5194,7 +5238,7 @@
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5253,7 +5297,7 @@
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5312,7 +5356,7 @@
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="11" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5377,7 +5421,7 @@
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="11" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5442,7 +5486,7 @@
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5507,7 +5551,7 @@
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5576,7 +5620,7 @@
         <v>50</v>
       </c>
       <c r="V14" s="13"/>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="11" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5645,7 +5689,7 @@
         <v>50</v>
       </c>
       <c r="V15" s="13"/>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5714,7 +5758,7 @@
         <v>50</v>
       </c>
       <c r="V16" s="13"/>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5779,7 +5823,7 @@
       </c>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="11" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5844,7 +5888,7 @@
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="11" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5909,7 +5953,7 @@
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="11" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5978,7 +6022,7 @@
         <v>50</v>
       </c>
       <c r="V20" s="13"/>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="11" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6047,7 +6091,7 @@
         <v>50</v>
       </c>
       <c r="V21" s="13"/>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="11" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6116,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="11" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6187,7 +6231,7 @@
       <c r="V23" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="11" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6248,7 +6292,7 @@
       <c r="V24" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="11" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6319,7 +6363,7 @@
       <c r="V25" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="11" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6378,7 +6422,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="11" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6447,7 +6491,7 @@
         <v>81</v>
       </c>
       <c r="V27" s="8"/>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="11" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6514,7 +6558,7 @@
         <v>67</v>
       </c>
       <c r="V28" s="13"/>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="11" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6750,7 +6794,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>104</v>
+        <v>444</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6770,12 +6814,12 @@
         <v>104</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="13"/>
       <c r="T3" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="13"/>
@@ -7631,7 +7675,7 @@
         <v>50</v>
       </c>
       <c r="V2" s="13"/>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7700,7 +7744,7 @@
         <v>50</v>
       </c>
       <c r="V3" s="13"/>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7769,7 +7813,7 @@
         <v>50</v>
       </c>
       <c r="V4" s="13"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7828,7 +7872,7 @@
       </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7887,7 +7931,7 @@
       </c>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7946,7 +7990,7 @@
       </c>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8005,7 +8049,7 @@
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8064,7 +8108,7 @@
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8123,7 +8167,7 @@
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="11" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8188,7 +8232,7 @@
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="11" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8253,7 +8297,7 @@
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8318,7 +8362,7 @@
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8387,7 +8431,7 @@
         <v>50</v>
       </c>
       <c r="V14" s="13"/>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="11" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8456,7 +8500,7 @@
         <v>50</v>
       </c>
       <c r="V15" s="13"/>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8525,7 +8569,7 @@
         <v>50</v>
       </c>
       <c r="V16" s="13"/>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8590,7 +8634,7 @@
       </c>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="11" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8655,7 +8699,7 @@
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="11" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8720,7 +8764,7 @@
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="11" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8789,7 +8833,7 @@
         <v>50</v>
       </c>
       <c r="V20" s="13"/>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="11" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8858,7 +8902,7 @@
         <v>50</v>
       </c>
       <c r="V21" s="13"/>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="11" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8927,7 +8971,7 @@
         <v>50</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="11" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8998,7 +9042,7 @@
       <c r="V23" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="11" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9059,7 +9103,7 @@
       <c r="V24" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="11" t="s">
         <v>310</v>
       </c>
     </row>
@@ -9130,7 +9174,7 @@
       <c r="V25" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="11" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9189,7 +9233,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="11" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9258,7 +9302,7 @@
         <v>81</v>
       </c>
       <c r="V27" s="8"/>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="11" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9325,7 +9369,7 @@
         <v>67</v>
       </c>
       <c r="V28" s="13"/>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="11" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10523,7 +10567,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10674,11 +10718,11 @@
         <v>45</v>
       </c>
       <c r="T2" s="13"/>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -10737,11 +10781,11 @@
         <v>63</v>
       </c>
       <c r="T3" s="13"/>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -10800,7 +10844,7 @@
         <v>74</v>
       </c>
       <c r="T4" s="13"/>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10922,13 +10966,202 @@
         <v>197</v>
       </c>
     </row>
+    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>123</v>
+      </c>
+      <c r="O7" s="11">
+        <v>123</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11">
+        <v>123</v>
+      </c>
+      <c r="O8" s="11">
+        <v>123</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="11">
+        <v>123</v>
+      </c>
+      <c r="O9" s="11">
+        <v>123</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:U9">
+    <sortCondition ref="U1"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="M3" r:id="rId2"/>
     <hyperlink ref="M4" r:id="rId3"/>
     <hyperlink ref="M5" r:id="rId4"/>
     <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10937,7 +11170,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11337,13 +11570,202 @@
         <v>199</v>
       </c>
     </row>
+    <row r="7" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>123</v>
+      </c>
+      <c r="O7" s="11">
+        <v>123</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="11">
+        <v>123</v>
+      </c>
+      <c r="O8" s="11">
+        <v>123</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="11">
+        <v>123</v>
+      </c>
+      <c r="O9" s="11">
+        <v>123</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:U9">
+    <sortCondition ref="U1"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="M3" r:id="rId2"/>
     <hyperlink ref="M4" r:id="rId3"/>
     <hyperlink ref="M5" r:id="rId4"/>
     <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/ey/test3po/testdata/TestData.xlsx
+++ b/src/main/java/com/ey/test3po/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="25" r:id="rId1"/>
@@ -2749,7 +2749,7 @@
   <sheetPr codeName="Sheet10" filterMode="1"/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:Z24"/>
     </sheetView>
   </sheetViews>
@@ -11841,7 +11841,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12084,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -12156,7 +12158,7 @@
         <v>42</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -12218,7 +12220,7 @@
         <v>56</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -12280,7 +12282,7 @@
         <v>76</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -12342,7 +12344,7 @@
         <v>77</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -12404,7 +12406,7 @@
         <v>91</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -12466,7 +12468,7 @@
         <v>98</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -12528,7 +12530,7 @@
         <v>99</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -12596,7 +12598,7 @@
         <v>100</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -12664,7 +12666,7 @@
         <v>101</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -12732,7 +12734,7 @@
         <v>102</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -12804,7 +12806,7 @@
         <v>104</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -12876,7 +12878,7 @@
         <v>105</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -12948,7 +12950,7 @@
         <v>106</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -13016,7 +13018,7 @@
         <v>107</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -13084,7 +13086,7 @@
         <v>108</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -13152,7 +13154,7 @@
         <v>109</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -13224,7 +13226,7 @@
         <v>110</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -13296,7 +13298,7 @@
         <v>111</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -13368,7 +13370,7 @@
         <v>112</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -13442,7 +13444,7 @@
         <v>162</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -13516,7 +13518,7 @@
         <v>258</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -13590,7 +13592,7 @@
         <v>259</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -13652,7 +13654,7 @@
         <v>115</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -13714,7 +13716,7 @@
         <v>268</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -13776,7 +13778,7 @@
         <v>269</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>142</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ey/test3po/testdata/TestData.xlsx
+++ b/src/main/java/com/ey/test3po/testdata/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Back Up\Project Work\Learning Stuffs\Eclipse Oxygen\3PO\src\main\java\com\ey\test3po\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="25" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Retirement!$A$1:$Z$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="763">
   <si>
     <t>Age</t>
   </si>
@@ -2230,82 +2230,109 @@
     <t>17897</t>
   </si>
   <si>
+    <t>660094</t>
+  </si>
+  <si>
+    <t>380145</t>
+  </si>
+  <si>
+    <t>244355</t>
+  </si>
+  <si>
+    <t>4367811</t>
+  </si>
+  <si>
+    <t>450021</t>
+  </si>
+  <si>
+    <t>5139581</t>
+  </si>
+  <si>
+    <t>243604</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>559920</t>
+  </si>
+  <si>
+    <t>447006</t>
+  </si>
+  <si>
+    <t>2685</t>
+  </si>
+  <si>
+    <t>736016</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>96717</t>
+  </si>
+  <si>
+    <t>4193</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>527069</t>
+  </si>
+  <si>
+    <t>33296</t>
+  </si>
+  <si>
+    <t>41646</t>
+  </si>
+  <si>
+    <t>59087</t>
+  </si>
+  <si>
+    <t>342758</t>
+  </si>
+  <si>
+    <t>9222</t>
+  </si>
+  <si>
+    <t>78878</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>test113@jmail.com</t>
+  </si>
+  <si>
+    <t>test114@jmail.com</t>
+  </si>
+  <si>
+    <t>106125</t>
+  </si>
+  <si>
+    <t>80690</t>
+  </si>
+  <si>
+    <t>28269</t>
+  </si>
+  <si>
+    <t>26026</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>660094</t>
-  </si>
-  <si>
-    <t>380145</t>
-  </si>
-  <si>
-    <t>244355</t>
-  </si>
-  <si>
-    <t>4367811</t>
-  </si>
-  <si>
-    <t>450021</t>
-  </si>
-  <si>
-    <t>5139581</t>
-  </si>
-  <si>
-    <t>243604</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>559920</t>
-  </si>
-  <si>
-    <t>447006</t>
-  </si>
-  <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>736016</t>
-  </si>
-  <si>
-    <t>2256</t>
-  </si>
-  <si>
-    <t>96717</t>
-  </si>
-  <si>
-    <t>4193</t>
-  </si>
-  <si>
-    <t>3323</t>
-  </si>
-  <si>
-    <t>527069</t>
-  </si>
-  <si>
-    <t>33296</t>
-  </si>
-  <si>
-    <t>41646</t>
-  </si>
-  <si>
-    <t>59087</t>
-  </si>
-  <si>
-    <t>342758</t>
-  </si>
-  <si>
-    <t>9222</t>
-  </si>
-  <si>
-    <t>78878</t>
+    <t>9345</t>
+  </si>
+  <si>
+    <t>16496</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2323,7 +2350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,18 +2360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,7 +2407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2408,12 +2423,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2698,7 +2710,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2749,11 +2761,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10" filterMode="1"/>
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z24"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2922,7 @@
         <v>83</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>610</v>
@@ -2929,14 +2941,14 @@
       </c>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>198</v>
       </c>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>198</v>
       </c>
@@ -3081,14 +3093,14 @@
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>397</v>
       </c>
@@ -3153,14 +3165,14 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>397</v>
       </c>
@@ -3225,14 +3237,14 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="13" t="s">
         <v>75</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>397</v>
       </c>
@@ -3297,14 +3309,14 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="13" t="s">
         <v>76</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>60</v>
       </c>
@@ -3369,14 +3381,14 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="13" t="s">
         <v>90</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -3441,14 +3453,14 @@
       <c r="V9" s="12"/>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="13" t="s">
         <v>97</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -3513,11 +3525,11 @@
       <c r="V10" s="12"/>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -3570,7 +3582,7 @@
         <v>83</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>610</v>
@@ -3582,21 +3594,21 @@
         <v>612</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>155</v>
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="13" t="s">
         <v>99</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>198</v>
       </c>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="13" t="s">
         <v>100</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>198</v>
       </c>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="15" t="s">
+      <c r="Y13" s="13" t="s">
         <v>101</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -3807,14 +3819,14 @@
       <c r="V14" s="12"/>
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="15" t="s">
+      <c r="Y14" s="13" t="s">
         <v>103</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
@@ -3873,14 +3885,14 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="15" t="s">
+      <c r="Y15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
@@ -3939,14 +3951,14 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="15" t="s">
+      <c r="Y16" s="13" t="s">
         <v>105</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>198</v>
       </c>
@@ -4005,11 +4017,11 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="15" t="s">
+      <c r="Y17" s="13" t="s">
         <v>106</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -4058,7 +4070,7 @@
         <v>83</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>685</v>
@@ -4071,11 +4083,11 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="15" t="s">
+      <c r="Y18" s="13" t="s">
         <v>107</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -4124,7 +4136,7 @@
         <v>83</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>687</v>
@@ -4137,11 +4149,11 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="15" t="s">
+      <c r="Y19" s="13" t="s">
         <v>108</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -4192,21 +4204,21 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y20" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>300</v>
       </c>
@@ -4259,16 +4271,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y21" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y21" s="13" t="s">
         <v>110</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>300</v>
       </c>
@@ -4321,13 +4333,13 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="Y22" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y22" s="13" t="s">
         <v>111</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -4386,13 +4398,13 @@
         <v>699</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T23" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>748</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>749</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>707</v>
@@ -4401,11 +4413,11 @@
         <v>141</v>
       </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" s="13" t="s">
         <v>161</v>
       </c>
       <c r="Z23" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -4464,13 +4476,13 @@
         <v>703</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>704</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V24" s="10" t="s">
         <v>700</v>
@@ -4479,11 +4491,11 @@
         <v>141</v>
       </c>
       <c r="X24" s="10"/>
-      <c r="Y24" s="15" t="s">
+      <c r="Y24" s="13" t="s">
         <v>257</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -4542,7 +4554,7 @@
         <v>709</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T25" s="10" t="s">
         <v>710</v>
@@ -4557,7 +4569,7 @@
         <v>141</v>
       </c>
       <c r="X25" s="10"/>
-      <c r="Y25" s="20" t="s">
+      <c r="Y25" s="13" t="s">
         <v>258</v>
       </c>
       <c r="Z25" s="13" t="s">
@@ -4614,7 +4626,7 @@
         <v>83</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>610</v>
@@ -4626,21 +4638,21 @@
         <v>612</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V26" s="10" t="s">
         <v>155</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
-      <c r="Y26" s="20" t="s">
+      <c r="Y26" s="13" t="s">
         <v>114</v>
       </c>
       <c r="Z26" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>198</v>
       </c>
@@ -4709,14 +4721,14 @@
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" s="13" t="s">
         <v>267</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>198</v>
       </c>
@@ -4785,14 +4797,14 @@
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" s="13" t="s">
         <v>268</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>82</v>
       </c>
@@ -4844,7 +4856,7 @@
       </c>
       <c r="R29" s="10"/>
       <c r="S29" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12" t="s">
@@ -4853,14 +4865,14 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="15" t="s">
+      <c r="Y29" s="13" t="s">
         <v>581</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>82</v>
       </c>
@@ -4908,11 +4920,11 @@
         <v>83</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R30" s="10"/>
       <c r="S30" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T30" s="12"/>
       <c r="U30" s="12" t="s">
@@ -4921,14 +4933,14 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
-      <c r="Y30" s="15" t="s">
+      <c r="Y30" s="13" t="s">
         <v>584</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>82</v>
       </c>
@@ -4980,7 +4992,7 @@
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12" t="s">
@@ -4989,14 +5001,14 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="15" t="s">
+      <c r="Y31" s="13" t="s">
         <v>588</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>193</v>
       </c>
@@ -5026,7 +5038,7 @@
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
@@ -5044,7 +5056,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>725</v>
@@ -5055,14 +5067,14 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="15" t="s">
+      <c r="Y32" s="13" t="s">
         <v>595</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>193</v>
       </c>
@@ -5110,7 +5122,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T33" s="10" t="s">
         <v>727</v>
@@ -5121,14 +5133,14 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="15" t="s">
+      <c r="Y33" s="13" t="s">
         <v>599</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>193</v>
       </c>
@@ -5176,7 +5188,7 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T34" s="10" t="s">
         <v>729</v>
@@ -5187,21 +5199,14 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="15" t="s">
+      <c r="Y34" s="13" t="s">
         <v>604</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z34">
-    <filterColumn colId="25">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
     <hyperlink ref="N3" r:id="rId2"/>
@@ -5228,10 +5233,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,79 +5265,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="15" t="s">
         <v>344</v>
       </c>
       <c r="Z1" s="14" t="s">
@@ -5407,7 +5413,7 @@
       </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Z2" s="10" t="s">
@@ -5464,10 +5470,10 @@
         <v>83</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>467</v>
+        <v>756</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>468</v>
+        <v>758</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>112</v>
@@ -5483,7 +5489,7 @@
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="10" t="s">
@@ -5540,10 +5546,10 @@
         <v>83</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>471</v>
+        <v>757</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>472</v>
+        <v>759</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>285</v>
@@ -5559,7 +5565,7 @@
       </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="Z4" s="10" t="s">
@@ -5625,7 +5631,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="Z5" s="10" t="s">
@@ -5691,7 +5697,7 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Z6" s="10" t="s">
@@ -5757,7 +5763,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="9" t="s">
         <v>76</v>
       </c>
       <c r="Z7" s="10" t="s">
@@ -5823,7 +5829,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="17" t="s">
+      <c r="Y8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="Z8" s="10" t="s">
@@ -5889,7 +5895,7 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="Z9" s="10" t="s">
@@ -5955,7 +5961,7 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="17" t="s">
+      <c r="Y10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="Z10" s="10" t="s">
@@ -6031,7 +6037,7 @@
       </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="9" t="s">
         <v>99</v>
       </c>
       <c r="Z11" s="10" t="s">
@@ -6107,7 +6113,7 @@
       </c>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="9" t="s">
         <v>100</v>
       </c>
       <c r="Z12" s="10" t="s">
@@ -6183,7 +6189,7 @@
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="18" t="s">
+      <c r="Y13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Z13" s="10" t="s">
@@ -6255,7 +6261,7 @@
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="9" t="s">
         <v>103</v>
       </c>
       <c r="Z14" s="10" t="s">
@@ -6327,7 +6333,7 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="9" t="s">
         <v>104</v>
       </c>
       <c r="Z15" s="10" t="s">
@@ -6399,7 +6405,7 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="Z16" s="10" t="s">
@@ -6471,7 +6477,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="18" t="s">
+      <c r="Y17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="Z17" s="10" t="s">
@@ -6543,7 +6549,7 @@
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="9" t="s">
         <v>107</v>
       </c>
       <c r="Z18" s="10" t="s">
@@ -6615,7 +6621,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="Z19" s="10" t="s">
@@ -6677,7 +6683,7 @@
       <c r="X20" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="9" t="s">
         <v>109</v>
       </c>
       <c r="Z20" s="10" t="s">
@@ -6739,7 +6745,7 @@
       <c r="X21" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="9" t="s">
         <v>110</v>
       </c>
       <c r="Z21" s="10" t="s">
@@ -6801,7 +6807,7 @@
       <c r="X22" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Y22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="Z22" s="10" t="s">
@@ -6879,7 +6885,7 @@
         <v>141</v>
       </c>
       <c r="X23" s="9"/>
-      <c r="Y23" s="17" t="s">
+      <c r="Y23" s="9" t="s">
         <v>161</v>
       </c>
       <c r="Z23" s="10" t="s">
@@ -6957,7 +6963,7 @@
         <v>141</v>
       </c>
       <c r="X24" s="9"/>
-      <c r="Y24" s="17" t="s">
+      <c r="Y24" s="9" t="s">
         <v>257</v>
       </c>
       <c r="Z24" s="10" t="s">
@@ -7035,7 +7041,7 @@
         <v>141</v>
       </c>
       <c r="X25" s="9"/>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="9" t="s">
         <v>258</v>
       </c>
       <c r="Z25" s="10" t="s">
@@ -7111,7 +7117,7 @@
       </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="9" t="s">
         <v>114</v>
       </c>
       <c r="Z26" s="10" t="s">
@@ -7187,7 +7193,7 @@
       </c>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="18" t="s">
+      <c r="Y27" s="9" t="s">
         <v>267</v>
       </c>
       <c r="Z27" s="10" t="s">
@@ -7263,7 +7269,7 @@
       </c>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="18" t="s">
+      <c r="Y28" s="9" t="s">
         <v>268</v>
       </c>
       <c r="Z28" s="10" t="s">
@@ -7333,7 +7339,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="18" t="s">
+      <c r="Y29" s="9" t="s">
         <v>581</v>
       </c>
       <c r="Z29" s="10" t="s">
@@ -7403,7 +7409,7 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="18" t="s">
+      <c r="Y30" s="9" t="s">
         <v>584</v>
       </c>
       <c r="Z30" s="10" t="s">
@@ -7473,7 +7479,7 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-      <c r="Y31" s="18" t="s">
+      <c r="Y31" s="9" t="s">
         <v>588</v>
       </c>
       <c r="Z31" s="10" t="s">
@@ -7539,7 +7545,7 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
-      <c r="Y32" s="18" t="s">
+      <c r="Y32" s="9" t="s">
         <v>595</v>
       </c>
       <c r="Z32" s="10" t="s">
@@ -7605,7 +7611,7 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="17" t="s">
+      <c r="Y33" s="9" t="s">
         <v>599</v>
       </c>
       <c r="Z33" s="10" t="s">
@@ -7671,7 +7677,7 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="17" t="s">
+      <c r="Y34" s="9" t="s">
         <v>604</v>
       </c>
       <c r="Z34" s="10" t="s">
@@ -7915,7 +7921,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8079,7 +8087,7 @@
         <v>38</v>
       </c>
       <c r="V2" s="10"/>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="10" t="s">
@@ -8151,7 +8159,7 @@
         <v>38</v>
       </c>
       <c r="V3" s="10"/>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="10" t="s">
@@ -8223,7 +8231,7 @@
         <v>150</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="X4" s="10" t="s">
@@ -8285,7 +8293,7 @@
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="X5" s="10" t="s">
@@ -8347,7 +8355,7 @@
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="13" t="s">
         <v>75</v>
       </c>
       <c r="X6" s="10" t="s">
@@ -8409,7 +8417,7 @@
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="13" t="s">
         <v>76</v>
       </c>
       <c r="X7" s="10" t="s">
@@ -8471,7 +8479,7 @@
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="13" t="s">
         <v>90</v>
       </c>
       <c r="X8" s="10" t="s">
@@ -8533,7 +8541,7 @@
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="13" t="s">
         <v>97</v>
       </c>
       <c r="X9" s="10" t="s">
@@ -8595,7 +8603,7 @@
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="X10" s="10" t="s">
@@ -8663,7 +8671,7 @@
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="13" t="s">
         <v>99</v>
       </c>
       <c r="X11" s="10" t="s">
@@ -8731,7 +8739,7 @@
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="13" t="s">
         <v>100</v>
       </c>
       <c r="X12" s="10" t="s">
@@ -8799,7 +8807,7 @@
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="13" t="s">
         <v>101</v>
       </c>
       <c r="X13" s="10" t="s">
@@ -8871,7 +8879,7 @@
         <v>38</v>
       </c>
       <c r="V14" s="10"/>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="13" t="s">
         <v>103</v>
       </c>
       <c r="X14" s="10" t="s">
@@ -8943,7 +8951,7 @@
         <v>38</v>
       </c>
       <c r="V15" s="10"/>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="X15" s="10" t="s">
@@ -9015,7 +9023,7 @@
         <v>150</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="13" t="s">
         <v>105</v>
       </c>
       <c r="X16" s="10" t="s">
@@ -9083,7 +9091,7 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="13" t="s">
         <v>106</v>
       </c>
       <c r="X17" s="10" t="s">
@@ -9151,7 +9159,7 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="13" t="s">
         <v>107</v>
       </c>
       <c r="X18" s="10" t="s">
@@ -9219,7 +9227,7 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="13" t="s">
         <v>108</v>
       </c>
       <c r="X19" s="10" t="s">
@@ -9291,7 +9299,7 @@
         <v>38</v>
       </c>
       <c r="V20" s="10"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="X20" s="10" t="s">
@@ -9363,7 +9371,7 @@
         <v>38</v>
       </c>
       <c r="V21" s="10"/>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>110</v>
       </c>
       <c r="X21" s="10" t="s">
@@ -9435,7 +9443,7 @@
         <v>150</v>
       </c>
       <c r="V22" s="10"/>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="13" t="s">
         <v>111</v>
       </c>
       <c r="X22" s="10" t="s">
@@ -9509,7 +9517,7 @@
       <c r="V23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="13" t="s">
         <v>161</v>
       </c>
       <c r="X23" s="10" t="s">
@@ -9583,7 +9591,7 @@
       <c r="V24" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="13" t="s">
         <v>257</v>
       </c>
       <c r="X24" s="10" t="s">
@@ -9657,7 +9665,7 @@
       <c r="V25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="13" t="s">
         <v>258</v>
       </c>
       <c r="X25" s="10" t="s">
@@ -9719,7 +9727,7 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="13" t="s">
         <v>114</v>
       </c>
       <c r="X26" s="10" t="s">
@@ -9781,7 +9789,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="13" t="s">
         <v>267</v>
       </c>
       <c r="X27" s="10" t="s">
@@ -9843,7 +9851,7 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="13" t="s">
         <v>268</v>
       </c>
       <c r="X28" s="10" t="s">
@@ -9892,7 +9900,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9917,73 +9927,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>344</v>
       </c>
       <c r="X1" s="14" t="s">
@@ -10037,7 +10047,7 @@
         <v>83</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>277</v>
@@ -11850,8 +11860,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11868,9 +11878,8 @@
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -11992,22 +12001,22 @@
         <v>16</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>83</v>
+        <v>754</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>753</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>166</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>167</v>
+        <v>761</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>168</v>
+        <v>762</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>169</v>
@@ -12019,7 +12028,7 @@
         <v>38</v>
       </c>
       <c r="V2" s="10"/>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="13" t="s">
@@ -12064,13 +12073,13 @@
         <v>16</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>83</v>
+        <v>755</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>753</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>174</v>
@@ -12091,11 +12100,11 @@
         <v>38</v>
       </c>
       <c r="V3" s="10"/>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -12163,11 +12172,11 @@
         <v>150</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -12225,11 +12234,11 @@
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -12287,11 +12296,11 @@
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="13" t="s">
         <v>75</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -12349,11 +12358,11 @@
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="13" t="s">
         <v>76</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -12411,11 +12420,11 @@
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="13" t="s">
         <v>90</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -12473,11 +12482,11 @@
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="13" t="s">
         <v>97</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -12535,11 +12544,11 @@
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -12603,11 +12612,11 @@
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="13" t="s">
         <v>99</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -12671,11 +12680,11 @@
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="13" t="s">
         <v>100</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -12739,11 +12748,11 @@
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="13" t="s">
         <v>101</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -12811,11 +12820,11 @@
         <v>38</v>
       </c>
       <c r="V14" s="10"/>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="13" t="s">
         <v>103</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -12883,11 +12892,11 @@
         <v>38</v>
       </c>
       <c r="V15" s="10"/>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -12955,11 +12964,11 @@
         <v>150</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="13" t="s">
         <v>105</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -13023,11 +13032,11 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="13" t="s">
         <v>106</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -13091,11 +13100,11 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="13" t="s">
         <v>107</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -13159,11 +13168,11 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="13" t="s">
         <v>108</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -13231,11 +13240,11 @@
         <v>38</v>
       </c>
       <c r="V20" s="10"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -13303,11 +13312,11 @@
         <v>38</v>
       </c>
       <c r="V21" s="10"/>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>110</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -13375,11 +13384,11 @@
         <v>150</v>
       </c>
       <c r="V22" s="10"/>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="13" t="s">
         <v>111</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -13449,11 +13458,11 @@
       <c r="V23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="13" t="s">
         <v>161</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -13523,11 +13532,11 @@
       <c r="V24" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="13" t="s">
         <v>257</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -13597,11 +13606,11 @@
       <c r="V25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="13" t="s">
         <v>258</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -13659,11 +13668,11 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="13" t="s">
         <v>114</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -13721,11 +13730,11 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="13" t="s">
         <v>267</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -13783,11 +13792,11 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="13" t="s">
         <v>268</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -13796,32 +13805,36 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M6" r:id="rId5"/>
-    <hyperlink ref="M7" r:id="rId6"/>
-    <hyperlink ref="M8" r:id="rId7"/>
-    <hyperlink ref="M9" r:id="rId8"/>
-    <hyperlink ref="M10" r:id="rId9"/>
-    <hyperlink ref="M11" r:id="rId10"/>
-    <hyperlink ref="M12" r:id="rId11"/>
-    <hyperlink ref="M13" r:id="rId12"/>
-    <hyperlink ref="M14" r:id="rId13"/>
-    <hyperlink ref="M15" r:id="rId14"/>
-    <hyperlink ref="M16" r:id="rId15"/>
-    <hyperlink ref="M17" r:id="rId16"/>
-    <hyperlink ref="M18" r:id="rId17"/>
-    <hyperlink ref="M19" r:id="rId18"/>
-    <hyperlink ref="M20" r:id="rId19"/>
-    <hyperlink ref="M21" r:id="rId20"/>
-    <hyperlink ref="M22" r:id="rId21"/>
-    <hyperlink ref="M23" r:id="rId22"/>
-    <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M25" r:id="rId24"/>
-    <hyperlink ref="M26" r:id="rId25"/>
-    <hyperlink ref="M27" r:id="rId26"/>
-    <hyperlink ref="M28" r:id="rId27"/>
+    <hyperlink ref="M4" r:id="rId2"/>
+    <hyperlink ref="M5" r:id="rId3"/>
+    <hyperlink ref="M6" r:id="rId4"/>
+    <hyperlink ref="M7" r:id="rId5"/>
+    <hyperlink ref="M8" r:id="rId6"/>
+    <hyperlink ref="M9" r:id="rId7"/>
+    <hyperlink ref="M10" r:id="rId8"/>
+    <hyperlink ref="M11" r:id="rId9"/>
+    <hyperlink ref="M12" r:id="rId10"/>
+    <hyperlink ref="M13" r:id="rId11"/>
+    <hyperlink ref="M14" r:id="rId12"/>
+    <hyperlink ref="M15" r:id="rId13"/>
+    <hyperlink ref="M16" r:id="rId14"/>
+    <hyperlink ref="M17" r:id="rId15"/>
+    <hyperlink ref="M18" r:id="rId16"/>
+    <hyperlink ref="M19" r:id="rId17"/>
+    <hyperlink ref="M20" r:id="rId18"/>
+    <hyperlink ref="M21" r:id="rId19"/>
+    <hyperlink ref="M22" r:id="rId20"/>
+    <hyperlink ref="M23" r:id="rId21"/>
+    <hyperlink ref="M24" r:id="rId22"/>
+    <hyperlink ref="M25" r:id="rId23"/>
+    <hyperlink ref="M26" r:id="rId24"/>
+    <hyperlink ref="M27" r:id="rId25"/>
+    <hyperlink ref="M28" r:id="rId26"/>
+    <hyperlink ref="N2" r:id="rId27"/>
+    <hyperlink ref="O2" r:id="rId28"/>
+    <hyperlink ref="M3" r:id="rId29"/>
+    <hyperlink ref="N3" r:id="rId30"/>
+    <hyperlink ref="O3" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13832,8 +13845,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X28"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13863,73 +13876,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>344</v>
       </c>
       <c r="X1" s="14" t="s">
@@ -13983,7 +13996,7 @@
         <v>83</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>277</v>
@@ -14001,7 +14014,7 @@
         <v>38</v>
       </c>
       <c r="V2" s="9"/>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="13" t="s">
@@ -14073,7 +14086,7 @@
         <v>38</v>
       </c>
       <c r="V3" s="9"/>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="13" t="s">
@@ -14145,7 +14158,7 @@
         <v>61</v>
       </c>
       <c r="V4" s="9"/>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="X4" s="13" t="s">
@@ -14207,7 +14220,7 @@
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="X5" s="13" t="s">
@@ -14269,7 +14282,7 @@
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="9" t="s">
         <v>75</v>
       </c>
       <c r="X6" s="13" t="s">
@@ -14331,7 +14344,7 @@
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="9" t="s">
         <v>76</v>
       </c>
       <c r="X7" s="13" t="s">
@@ -14393,7 +14406,7 @@
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="X8" s="13" t="s">
@@ -14455,7 +14468,7 @@
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="X9" s="13" t="s">
@@ -14517,7 +14530,7 @@
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="X10" s="13" t="s">
@@ -14585,7 +14598,7 @@
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="9" t="s">
         <v>99</v>
       </c>
       <c r="X11" s="13" t="s">
@@ -14653,7 +14666,7 @@
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="9" t="s">
         <v>100</v>
       </c>
       <c r="X12" s="13" t="s">
@@ -14721,7 +14734,7 @@
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="X13" s="13" t="s">
@@ -14793,7 +14806,7 @@
         <v>38</v>
       </c>
       <c r="V14" s="9"/>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="9" t="s">
         <v>103</v>
       </c>
       <c r="X14" s="13" t="s">
@@ -14865,7 +14878,7 @@
         <v>38</v>
       </c>
       <c r="V15" s="9"/>
-      <c r="W15" s="17" t="s">
+      <c r="W15" s="9" t="s">
         <v>104</v>
       </c>
       <c r="X15" s="13" t="s">
@@ -14937,7 +14950,7 @@
         <v>61</v>
       </c>
       <c r="V16" s="9"/>
-      <c r="W16" s="17" t="s">
+      <c r="W16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="X16" s="13" t="s">
@@ -15005,7 +15018,7 @@
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="17" t="s">
+      <c r="W17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="X17" s="13" t="s">
@@ -15073,7 +15086,7 @@
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="17" t="s">
+      <c r="W18" s="9" t="s">
         <v>107</v>
       </c>
       <c r="X18" s="13" t="s">
@@ -15141,7 +15154,7 @@
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="X19" s="13" t="s">
@@ -15213,7 +15226,7 @@
         <v>38</v>
       </c>
       <c r="V20" s="9"/>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="9" t="s">
         <v>109</v>
       </c>
       <c r="X20" s="13" t="s">
@@ -15285,7 +15298,7 @@
         <v>38</v>
       </c>
       <c r="V21" s="9"/>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="9" t="s">
         <v>110</v>
       </c>
       <c r="X21" s="13" t="s">
@@ -15357,7 +15370,7 @@
         <v>61</v>
       </c>
       <c r="V22" s="9"/>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="X22" s="13" t="s">
@@ -15431,7 +15444,7 @@
       <c r="V23" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="W23" s="17" t="s">
+      <c r="W23" s="9" t="s">
         <v>161</v>
       </c>
       <c r="X23" s="13" t="s">
@@ -15505,7 +15518,7 @@
       <c r="V24" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="W24" s="9" t="s">
         <v>257</v>
       </c>
       <c r="X24" s="13" t="s">
@@ -15579,7 +15592,7 @@
       <c r="V25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="W25" s="18" t="s">
+      <c r="W25" s="9" t="s">
         <v>258</v>
       </c>
       <c r="X25" s="13" t="s">
@@ -15641,7 +15654,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="17" t="s">
+      <c r="W26" s="9" t="s">
         <v>114</v>
       </c>
       <c r="X26" s="13" t="s">
@@ -15703,7 +15716,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="18" t="s">
+      <c r="W27" s="9" t="s">
         <v>267</v>
       </c>
       <c r="X27" s="13" t="s">
@@ -15765,7 +15778,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="18" t="s">
+      <c r="W28" s="9" t="s">
         <v>268</v>
       </c>
       <c r="X28" s="13" t="s">
@@ -15866,7 +15879,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -16057,9 +16070,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16211,7 +16222,7 @@
         <v>169</v>
       </c>
       <c r="T2" s="9"/>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="V2" s="13" t="s">
@@ -16277,11 +16288,11 @@
         <v>177</v>
       </c>
       <c r="T3" s="9"/>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -16343,11 +16354,11 @@
         <v>186</v>
       </c>
       <c r="T4" s="9"/>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -16409,11 +16420,11 @@
         <v>230</v>
       </c>
       <c r="T5" s="9"/>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -16475,11 +16486,11 @@
         <v>231</v>
       </c>
       <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -16541,11 +16552,11 @@
         <v>232</v>
       </c>
       <c r="T7" s="9"/>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="9" t="s">
         <v>76</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -16607,11 +16618,11 @@
         <v>54</v>
       </c>
       <c r="T8" s="9"/>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -16673,11 +16684,11 @@
         <v>54</v>
       </c>
       <c r="T9" s="9"/>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -16739,11 +16750,11 @@
         <v>54</v>
       </c>
       <c r="T10" s="9"/>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -16801,11 +16812,11 @@
         <v>190</v>
       </c>
       <c r="T11" s="9"/>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="9" t="s">
         <v>99</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -16863,11 +16874,11 @@
         <v>195</v>
       </c>
       <c r="T12" s="9"/>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="9" t="s">
         <v>100</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -16925,11 +16936,11 @@
         <v>200</v>
       </c>
       <c r="T13" s="9"/>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -16987,11 +16998,11 @@
         <v>204</v>
       </c>
       <c r="T14" s="9"/>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="9" t="s">
         <v>103</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -17049,11 +17060,11 @@
         <v>208</v>
       </c>
       <c r="T15" s="9"/>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="9" t="s">
         <v>104</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -17111,11 +17122,11 @@
         <v>210</v>
       </c>
       <c r="T16" s="9"/>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -17179,11 +17190,11 @@
       <c r="T17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -17247,11 +17258,11 @@
       <c r="T18" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="9" t="s">
         <v>107</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -17315,11 +17326,11 @@
       <c r="T19" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -17340,7 +17351,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17482,7 +17493,7 @@
         <v>83</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>277</v>
@@ -17494,7 +17505,7 @@
         <v>169</v>
       </c>
       <c r="T2" s="9"/>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="V2" s="13" t="s">
@@ -17560,7 +17571,7 @@
         <v>177</v>
       </c>
       <c r="T3" s="9"/>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="13" t="s">
@@ -17626,7 +17637,7 @@
         <v>283</v>
       </c>
       <c r="T4" s="9"/>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="V4" s="13" t="s">
@@ -17692,7 +17703,7 @@
         <v>355</v>
       </c>
       <c r="T5" s="9"/>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="V5" s="13" t="s">
@@ -17758,7 +17769,7 @@
         <v>362</v>
       </c>
       <c r="T6" s="9"/>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="9" t="s">
         <v>75</v>
       </c>
       <c r="V6" s="13" t="s">
@@ -17824,7 +17835,7 @@
         <v>370</v>
       </c>
       <c r="T7" s="9"/>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="9" t="s">
         <v>76</v>
       </c>
       <c r="V7" s="13" t="s">
@@ -17890,7 +17901,7 @@
         <v>324</v>
       </c>
       <c r="T8" s="9"/>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="V8" s="13" t="s">
@@ -17956,7 +17967,7 @@
         <v>325</v>
       </c>
       <c r="T9" s="9"/>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="V9" s="13" t="s">
@@ -18022,7 +18033,7 @@
         <v>326</v>
       </c>
       <c r="T10" s="9"/>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="9" t="s">
         <v>98</v>
       </c>
       <c r="V10" s="13" t="s">
@@ -18084,7 +18095,7 @@
         <v>293</v>
       </c>
       <c r="T11" s="9"/>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="9" t="s">
         <v>99</v>
       </c>
       <c r="V11" s="13" t="s">
@@ -18146,7 +18157,7 @@
         <v>293</v>
       </c>
       <c r="T12" s="9"/>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="9" t="s">
         <v>100</v>
       </c>
       <c r="V12" s="13" t="s">
@@ -18208,7 +18219,7 @@
         <v>293</v>
       </c>
       <c r="T13" s="9"/>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="V13" s="13" t="s">
@@ -18270,7 +18281,7 @@
         <v>304</v>
       </c>
       <c r="T14" s="9"/>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="9" t="s">
         <v>103</v>
       </c>
       <c r="V14" s="13" t="s">
@@ -18332,7 +18343,7 @@
         <v>305</v>
       </c>
       <c r="T15" s="9"/>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="9" t="s">
         <v>104</v>
       </c>
       <c r="V15" s="13" t="s">
@@ -18394,7 +18405,7 @@
         <v>306</v>
       </c>
       <c r="T16" s="9"/>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="V16" s="13" t="s">
@@ -18460,7 +18471,7 @@
         <v>382</v>
       </c>
       <c r="T17" s="9"/>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="V17" s="13" t="s">
@@ -18526,7 +18537,7 @@
         <v>388</v>
       </c>
       <c r="T18" s="9"/>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="9" t="s">
         <v>107</v>
       </c>
       <c r="V18" s="13" t="s">
@@ -18592,7 +18603,7 @@
         <v>395</v>
       </c>
       <c r="T19" s="9"/>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="9" t="s">
         <v>108</v>
       </c>
       <c r="V19" s="13" t="s">
